--- a/SuppXLS/Scen_Fix_Blending.xlsx
+++ b/SuppXLS/Scen_Fix_Blending.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC71CD0-2FD2-4248-AFA3-3CD7B0C3FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A5E4C7-9E8F-48B8-83B3-6FB7DAD10401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="3360" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="3495" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -133,98 +133,87 @@
     <t>REG1</t>
   </si>
   <si>
-    <t>Share-O</t>
-  </si>
-  <si>
     <t>Other_Indexes</t>
   </si>
   <si>
-    <t>NRGO</t>
-  </si>
-  <si>
-    <t>REFEOIL00</t>
-  </si>
-  <si>
     <t>DSL</t>
   </si>
   <si>
-    <t>KER</t>
-  </si>
-  <si>
-    <t>LPG</t>
-  </si>
-  <si>
     <t>GSL</t>
   </si>
   <si>
-    <t>NAP</t>
-  </si>
-  <si>
-    <t>HFO</t>
-  </si>
-  <si>
-    <t>OPP</t>
+    <t>Refinery Relaxation Prod</t>
+  </si>
+  <si>
+    <t>Share-I</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>BLE-GSL-10</t>
+  </si>
+  <si>
+    <t>BLE-DSL-10</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>Comm-IN</t>
+  </si>
+  <si>
+    <t>Comm-OUT</t>
+  </si>
+  <si>
+    <t>Share-I~UP</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>GSL-E10</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>DSL-B10</t>
+  </si>
+  <si>
+    <t>BDSL</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>~TFM_FILL</t>
+  </si>
+  <si>
+    <t>Operation_Sum_Avg_Count</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BASE</t>
   </si>
   <si>
     <t>UP</t>
   </si>
   <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>Refinery Relaxation Prod</t>
-  </si>
-  <si>
-    <t>Share-I</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>BLE-GSL-10</t>
-  </si>
-  <si>
-    <t>BLE-DSL-10</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>Comm-IN</t>
-  </si>
-  <si>
-    <t>Comm-OUT</t>
-  </si>
-  <si>
-    <t>Share-I~UP</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>GSL-E10</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>DSL-B10</t>
-  </si>
-  <si>
-    <t>BDSL</t>
-  </si>
-  <si>
-    <t>NRGI</t>
+    <t>~TFM_INS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
@@ -311,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,8 +330,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF64C8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -361,17 +356,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -396,8 +382,9 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -409,14 +396,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,18 +408,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="25">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="24" xr:uid="{ACD072FD-D47D-4ED7-9F4D-DCA9B77AA234}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -902,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F8"/>
+  <dimension ref="B3:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F8"/>
+      <selection activeCell="J12" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,79 +901,173 @@
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5.7621225008503835E-2</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13">
+        <v>9.3659149944684009E-2</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>2019</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16" t="str">
+        <f>+B7</f>
+        <v>BLE-DSL-10</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>2019</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9.3659149944683995E-2</v>
+      </c>
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="19">
-        <v>5.7621225008503835E-2</v>
-      </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="19">
-        <v>9.3659149944684009E-2</v>
-      </c>
-      <c r="F8" s="19"/>
+      <c r="J13" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -997,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IS28"/>
+  <dimension ref="A1:IS33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,8 +1099,8 @@
     <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:253" x14ac:dyDescent="0.25">
@@ -1029,8 +1109,8 @@
       </c>
     </row>
     <row r="3" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>31</v>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
@@ -1041,7 +1121,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="R3" s="18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="S3" s="18"/>
     </row>
@@ -1059,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>9</v>
@@ -1091,272 +1171,237 @@
       <c r="P4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10">
         <v>2019</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="F5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8">
         <f>100%-H6</f>
-        <v>0.94237877499149614</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="str">
-        <f>+'BY Data'!C5</f>
-        <v>GSL</v>
-      </c>
-      <c r="IS5" s="10"/>
-    </row>
-    <row r="6" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="H6" s="10">
-        <f>+'BY Data'!E6</f>
-        <v>5.7621225008503835E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="str">
-        <f>+'BY Data'!C6</f>
-        <v>ETH</v>
-      </c>
-    </row>
-    <row r="7" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="H7" s="10">
-        <f>100%-H8</f>
         <v>0.90634085005531595</v>
       </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="str">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="str">
         <f>+'BY Data'!C7</f>
         <v>DSL</v>
       </c>
-    </row>
-    <row r="8" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="H8" s="10">
+      <c r="IS5" s="7"/>
+    </row>
+    <row r="6" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8">
         <f>+'BY Data'!E8</f>
         <v>9.3659149944684009E-2</v>
       </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" t="str">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="str">
         <f>+'BY Data'!C8</f>
         <v>BDSL</v>
       </c>
     </row>
+    <row r="7" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
     <row r="12" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="R12" s="11">
+      <c r="R12" s="8">
         <v>0.25</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>2020</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>2020</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>2020</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>2020</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>2020</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26">
-        <v>2020</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="9">
-        <v>2020</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28">
-        <v>2020</v>
-      </c>
-      <c r="H28" s="17" t="e">
-        <f>'BY Data'!#REF!*(1+Blending!R12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>19</v>
-      </c>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="R21"/>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="R23"/>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="R24"/>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="R26"/>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="R27"/>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="R28"/>
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="R29"/>
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="R30"/>
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="R31"/>
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="R32"/>
+      <c r="S32"/>
+    </row>
+    <row r="33" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R33"/>
+      <c r="S33"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SuppXLS/Scen_Fix_Blending.xlsx
+++ b/SuppXLS/Scen_Fix_Blending.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A5E4C7-9E8F-48B8-83B3-6FB7DAD10401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA37B81-90A5-4146-88D7-0573B4F75F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3495" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>
@@ -34,11 +34,37 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Gary Goldstein</author>
     <author>Maurizio Gargiulo</author>
-    <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F73" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,38 +78,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="75">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -187,9 +209,6 @@
     <t>NRGI</t>
   </si>
   <si>
-    <t>~TFM_FILL</t>
-  </si>
-  <si>
     <t>Operation_Sum_Avg_Count</t>
   </si>
   <si>
@@ -206,17 +225,121 @@
   </si>
   <si>
     <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>Share-I~2019</t>
+  </si>
+  <si>
+    <t>Share-I~2020</t>
+  </si>
+  <si>
+    <t>Share-I~2025</t>
+  </si>
+  <si>
+    <t>Share-I~2030</t>
+  </si>
+  <si>
+    <t>Share-I~2035</t>
+  </si>
+  <si>
+    <t>Share-I~2040</t>
+  </si>
+  <si>
+    <t>Share-I~2045</t>
+  </si>
+  <si>
+    <t>Share-I~2050</t>
+  </si>
+  <si>
+    <t>FTD-AGR</t>
+  </si>
+  <si>
+    <t>DDSL</t>
+  </si>
+  <si>
+    <t>DAGR</t>
+  </si>
+  <si>
+    <t>DBDSL</t>
+  </si>
+  <si>
+    <t>DGSL</t>
+  </si>
+  <si>
+    <t>DETH</t>
+  </si>
+  <si>
+    <t>DGAS</t>
+  </si>
+  <si>
+    <t>FTD-TER</t>
+  </si>
+  <si>
+    <t>DTER</t>
+  </si>
+  <si>
+    <t>DLPG</t>
+  </si>
+  <si>
+    <t>FTD-RSD</t>
+  </si>
+  <si>
+    <t>DRSD</t>
+  </si>
+  <si>
+    <t>FTD-IND</t>
+  </si>
+  <si>
+    <t>DIND</t>
+  </si>
+  <si>
+    <t>DKER</t>
+  </si>
+  <si>
+    <t>DHFO</t>
+  </si>
+  <si>
+    <t>DLOIL</t>
+  </si>
+  <si>
+    <t>DH2</t>
+  </si>
+  <si>
+    <t>FTD-TRA</t>
+  </si>
+  <si>
+    <t>DTRA</t>
+  </si>
+  <si>
+    <t>DAVG</t>
+  </si>
+  <si>
+    <t>%e de Ethanol en Gasolina</t>
+  </si>
+  <si>
+    <t>%e de Biodiesel en Diesel</t>
+  </si>
+  <si>
+    <t>LIMTYPE</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>%e de Ethanol</t>
+  </si>
+  <si>
+    <t>%e de Biodiesel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +422,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +474,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -356,8 +506,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -382,9 +623,10 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,17 +657,117 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="11" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="23" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="23" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="23" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma 2 2" xfId="24" xr:uid="{ACD072FD-D47D-4ED7-9F4D-DCA9B77AA234}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="25" xr:uid="{8AB01B8C-44D5-416A-B04C-B287612FF8A0}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -457,114 +799,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593753AD-C3ED-4833-9491-2E983AF30347}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="2676525"/>
-          <a:ext cx="5476875" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Declare </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> a maximum output share from 2020 by petroleoum products  and maximum activity production from 2020 based on 2005 production.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +1125,7 @@
   <dimension ref="B3:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,9 +1211,7 @@
       <c r="F8" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -989,10 +1221,10 @@
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -1018,13 +1250,13 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -1032,9 +1264,7 @@
       <c r="G12">
         <v>2019</v>
       </c>
-      <c r="H12" s="17">
-        <v>1</v>
-      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="16" t="str">
         <f>+B7</f>
         <v>BLE-DSL-10</v>
@@ -1045,13 +1275,13 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -1059,9 +1289,7 @@
       <c r="G13">
         <v>2019</v>
       </c>
-      <c r="H13" s="7">
-        <v>9.3659149944683995E-2</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" t="s">
         <v>23</v>
       </c>
@@ -1077,22 +1305,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IS33"/>
+  <dimension ref="A1:IS122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107:J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -1100,7 +1327,7 @@
     <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:253" x14ac:dyDescent="0.25">
@@ -1109,9 +1336,6 @@
       </c>
     </row>
     <row r="3" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1120,10 +1344,10 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="18"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:253" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -1301,107 +1525,2889 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
+    <row r="11" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
     <row r="12" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="R12" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="R19"/>
-      <c r="S19"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="R20"/>
-      <c r="S20"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="R21"/>
-      <c r="S21"/>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="R22"/>
-      <c r="S22"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="R23"/>
-      <c r="S23"/>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="R24"/>
-      <c r="S24"/>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="R25"/>
-      <c r="S25"/>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="R26"/>
-      <c r="S26"/>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="R27"/>
-      <c r="S27"/>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="R28"/>
-      <c r="S28"/>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="R29"/>
-      <c r="S29"/>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="R30"/>
-      <c r="S30"/>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="R31"/>
-      <c r="S31"/>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="R32"/>
-      <c r="S32"/>
-    </row>
-    <row r="33" spans="18:19" x14ac:dyDescent="0.25">
-      <c r="R33"/>
-      <c r="S33"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:253" x14ac:dyDescent="0.25">
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0.70492284759636947</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0.71393822850931155</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0.71446486124964681</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0.71752787053189593</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.71924314150809932</v>
+      </c>
+      <c r="M17" s="26">
+        <v>0.71947452206965223</v>
+      </c>
+      <c r="N17" s="26">
+        <v>0.71849531385010945</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0.71650902714452402</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0</v>
+      </c>
+      <c r="N18" s="26">
+        <v>0</v>
+      </c>
+      <c r="O18" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="25">
+        <v>1</v>
+      </c>
+      <c r="H19" s="26">
+        <v>6.6920156894449958E-3</v>
+      </c>
+      <c r="I19" s="26">
+        <v>7.1142331301549495E-3</v>
+      </c>
+      <c r="J19" s="26">
+        <v>6.884185400222554E-3</v>
+      </c>
+      <c r="K19" s="26">
+        <v>6.7217875799148548E-3</v>
+      </c>
+      <c r="L19" s="26">
+        <v>6.6017020910173795E-3</v>
+      </c>
+      <c r="M19" s="26">
+        <v>6.5185070900598899E-3</v>
+      </c>
+      <c r="N19" s="26">
+        <v>6.4624611243749045E-3</v>
+      </c>
+      <c r="O19" s="26">
+        <v>6.4287265996042856E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="25">
+        <v>1</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="26">
+        <v>0</v>
+      </c>
+      <c r="L20" s="26">
+        <v>0</v>
+      </c>
+      <c r="M20" s="26">
+        <v>0</v>
+      </c>
+      <c r="N20" s="26">
+        <v>0</v>
+      </c>
+      <c r="O20" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="28">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.28838513671418559</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0.27894753836053338</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.27865095335013057</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0.27575034188818925</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0.27415515640088323</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0.2740069708402878</v>
+      </c>
+      <c r="N21" s="13">
+        <v>0.27504222502551567</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0.27706224625587167</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="28">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.94914717262718429</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0.94909397992018851</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0.94381625559454663</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0.94089342504252638</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0.93845062398555323</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0.93558574737128919</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0.93394802666463828</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0.933269906252853</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="28">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>5.0852827372815664E-2</v>
+      </c>
+      <c r="I23" s="13">
+        <v>5.0906020079811459E-2</v>
+      </c>
+      <c r="J23" s="13">
+        <v>5.6183744405453408E-2</v>
+      </c>
+      <c r="K23" s="13">
+        <v>5.9106574957473554E-2</v>
+      </c>
+      <c r="L23" s="13">
+        <v>6.1549376014446808E-2</v>
+      </c>
+      <c r="M23" s="13">
+        <v>6.4414252628710852E-2</v>
+      </c>
+      <c r="N23" s="13">
+        <v>6.6051973335361724E-2</v>
+      </c>
+      <c r="O23" s="13">
+        <v>6.6730093747146987E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="28">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0.73862618670258562</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0.74554154285971541</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0.75129509265895111</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0.75734173890202261</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0.76288003210832334</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0.76798679968770389</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0.77271043225491287</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0.7770943916548716</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="28">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0.26137381329741433</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0.25445845714028453</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.24870490734104891</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0.24265826109797739</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0.23711996789167664</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0.23201320031229605</v>
+      </c>
+      <c r="N25" s="13">
+        <v>0.22728956774508716</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0.22290560834512835</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="26">
+        <v>2.3815208477444158E-2</v>
+      </c>
+      <c r="I26" s="26">
+        <v>2.2130945027794936E-2</v>
+      </c>
+      <c r="J26" s="26">
+        <v>2.2932665713608379E-2</v>
+      </c>
+      <c r="K26" s="26">
+        <v>2.2896265372607132E-2</v>
+      </c>
+      <c r="L26" s="26">
+        <v>2.2391833159756083E-2</v>
+      </c>
+      <c r="M26" s="26">
+        <v>2.177574009314618E-2</v>
+      </c>
+      <c r="N26" s="26">
+        <v>2.1387985767026867E-2</v>
+      </c>
+      <c r="O26" s="26">
+        <v>2.1105475060029102E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="25">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+      <c r="K27" s="26">
+        <v>0</v>
+      </c>
+      <c r="L27" s="26">
+        <v>0</v>
+      </c>
+      <c r="M27" s="26">
+        <v>0</v>
+      </c>
+      <c r="N27" s="26">
+        <v>0</v>
+      </c>
+      <c r="O27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="25">
+        <v>1</v>
+      </c>
+      <c r="H28" s="26">
+        <v>2.0733084888629265E-3</v>
+      </c>
+      <c r="I28" s="26">
+        <v>1.605929586164299E-3</v>
+      </c>
+      <c r="J28" s="26">
+        <v>1.6549809268611576E-3</v>
+      </c>
+      <c r="K28" s="26">
+        <v>1.6409824262324721E-3</v>
+      </c>
+      <c r="L28" s="26">
+        <v>1.58464374956299E-3</v>
+      </c>
+      <c r="M28" s="26">
+        <v>1.5202058455406398E-3</v>
+      </c>
+      <c r="N28" s="26">
+        <v>1.4820495625786701E-3</v>
+      </c>
+      <c r="O28" s="26">
+        <v>1.4573539790034261E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="26">
+        <v>0</v>
+      </c>
+      <c r="J29" s="26">
+        <v>0</v>
+      </c>
+      <c r="K29" s="26">
+        <v>0</v>
+      </c>
+      <c r="L29" s="26">
+        <v>0</v>
+      </c>
+      <c r="M29" s="26">
+        <v>0</v>
+      </c>
+      <c r="N29" s="26">
+        <v>0</v>
+      </c>
+      <c r="O29" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="28">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0.92987932910492899</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0.93058884084826032</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0.93376663960747408</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0.93688069662246576</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0.94004040731158889</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0.94314873307226621</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0.94608397598622218</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0.94882285301864444</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="28">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>3.7747992514573081E-5</v>
+      </c>
+      <c r="I31" s="13">
+        <v>3.9118797611694459E-5</v>
+      </c>
+      <c r="J31" s="13">
+        <v>3.9511210407971213E-5</v>
+      </c>
+      <c r="K31" s="13">
+        <v>3.7937124462826458E-5</v>
+      </c>
+      <c r="L31" s="13">
+        <v>3.6800830226729914E-5</v>
+      </c>
+      <c r="M31" s="13">
+        <v>3.4916388678495262E-5</v>
+      </c>
+      <c r="N31" s="13">
+        <v>3.3710306866127345E-5</v>
+      </c>
+      <c r="O31" s="13">
+        <v>3.2563587076633333E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="28">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3.934284519831379E-2</v>
+      </c>
+      <c r="I32" s="13">
+        <v>4.1462837142268893E-2</v>
+      </c>
+      <c r="J32" s="13">
+        <v>3.7275235091701928E-2</v>
+      </c>
+      <c r="K32" s="13">
+        <v>3.4209600191138528E-2</v>
+      </c>
+      <c r="L32" s="13">
+        <v>3.1685514825214457E-2</v>
+      </c>
+      <c r="M32" s="13">
+        <v>2.9354610843418796E-2</v>
+      </c>
+      <c r="N32" s="13">
+        <v>2.6908650486120688E-2</v>
+      </c>
+      <c r="O32" s="13">
+        <v>2.4527320849557291E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="28">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <v>4.1598287751059542E-3</v>
+      </c>
+      <c r="I33" s="13">
+        <v>3.4764257772287419E-3</v>
+      </c>
+      <c r="J33" s="13">
+        <v>3.6098878600010062E-3</v>
+      </c>
+      <c r="K33" s="13">
+        <v>3.6177487626040034E-3</v>
+      </c>
+      <c r="L33" s="13">
+        <v>3.5682084987837324E-3</v>
+      </c>
+      <c r="M33" s="13">
+        <v>3.5017109030452461E-3</v>
+      </c>
+      <c r="N33" s="13">
+        <v>3.4559084235435194E-3</v>
+      </c>
+      <c r="O33" s="13">
+        <v>3.4159736672684702E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="28">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13">
+        <v>6.9173196282955177E-4</v>
+      </c>
+      <c r="I34" s="13">
+        <v>6.9590282067119613E-4</v>
+      </c>
+      <c r="J34" s="13">
+        <v>7.2107958994547454E-4</v>
+      </c>
+      <c r="K34" s="13">
+        <v>7.1676950048914668E-4</v>
+      </c>
+      <c r="L34" s="13">
+        <v>6.9259162486705697E-4</v>
+      </c>
+      <c r="M34" s="13">
+        <v>6.6408285390445808E-4</v>
+      </c>
+      <c r="N34" s="13">
+        <v>6.4771946764201826E-4</v>
+      </c>
+      <c r="O34" s="13">
+        <v>6.3845983842054856E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="28">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13">
+        <v>0</v>
+      </c>
+      <c r="O35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="25">
+        <v>1</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0.42556332971371874</v>
+      </c>
+      <c r="I36" s="26">
+        <v>0.42885227003017673</v>
+      </c>
+      <c r="J36" s="26">
+        <v>0.4301288355256343</v>
+      </c>
+      <c r="K36" s="26">
+        <v>0.42782773669978968</v>
+      </c>
+      <c r="L36" s="26">
+        <v>0.41668817229295235</v>
+      </c>
+      <c r="M36" s="26">
+        <v>0.39409044952974615</v>
+      </c>
+      <c r="N36" s="26">
+        <v>0.36101605214575999</v>
+      </c>
+      <c r="O36" s="26">
+        <v>0.32619321607544083</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D37" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="25">
+        <v>1</v>
+      </c>
+      <c r="H37" s="26">
+        <v>0</v>
+      </c>
+      <c r="I37" s="26">
+        <v>0</v>
+      </c>
+      <c r="J37" s="26">
+        <v>0</v>
+      </c>
+      <c r="K37" s="26">
+        <v>0</v>
+      </c>
+      <c r="L37" s="26">
+        <v>0</v>
+      </c>
+      <c r="M37" s="26">
+        <v>0</v>
+      </c>
+      <c r="N37" s="26">
+        <v>0</v>
+      </c>
+      <c r="O37" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D38" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="25">
+        <v>1</v>
+      </c>
+      <c r="H38" s="26">
+        <v>0.43290649023408723</v>
+      </c>
+      <c r="I38" s="26">
+        <v>0.43334520055606424</v>
+      </c>
+      <c r="J38" s="26">
+        <v>0.42676689042599353</v>
+      </c>
+      <c r="K38" s="26">
+        <v>0.41280956616074077</v>
+      </c>
+      <c r="L38" s="26">
+        <v>0.39470185013541281</v>
+      </c>
+      <c r="M38" s="26">
+        <v>0.37375110178859372</v>
+      </c>
+      <c r="N38" s="26">
+        <v>0.35412901955996318</v>
+      </c>
+      <c r="O38" s="26">
+        <v>0.33610432900293752</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D39" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="25">
+        <v>1</v>
+      </c>
+      <c r="H39" s="26">
+        <v>0</v>
+      </c>
+      <c r="I39" s="26">
+        <v>0</v>
+      </c>
+      <c r="J39" s="26">
+        <v>0</v>
+      </c>
+      <c r="K39" s="26">
+        <v>0</v>
+      </c>
+      <c r="L39" s="26">
+        <v>0</v>
+      </c>
+      <c r="M39" s="26">
+        <v>0</v>
+      </c>
+      <c r="N39" s="26">
+        <v>0</v>
+      </c>
+      <c r="O39" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="28">
+        <v>1</v>
+      </c>
+      <c r="H40" s="13">
+        <v>3.638539169699493E-2</v>
+      </c>
+      <c r="I40" s="13">
+        <v>3.4195910894110469E-2</v>
+      </c>
+      <c r="J40" s="13">
+        <v>2.7821777272638556E-2</v>
+      </c>
+      <c r="K40" s="13">
+        <v>2.934035639254148E-2</v>
+      </c>
+      <c r="L40" s="13">
+        <v>4.0087103729669921E-2</v>
+      </c>
+      <c r="M40" s="13">
+        <v>6.3024887052906611E-2</v>
+      </c>
+      <c r="N40" s="13">
+        <v>9.4953571196556966E-2</v>
+      </c>
+      <c r="O40" s="13">
+        <v>0.1300448131911226</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="28">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0.10288236971605716</v>
+      </c>
+      <c r="I41" s="13">
+        <v>0.1011779066219103</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0.11262576139978951</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0.12700802912736228</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0.14454567570501695</v>
+      </c>
+      <c r="M41" s="13">
+        <v>0.16327899835227158</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0.18201419157065585</v>
+      </c>
+      <c r="O41" s="13">
+        <v>0.19787361201483947</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="28">
+        <v>1</v>
+      </c>
+      <c r="H42" s="13">
+        <v>5.4111527860738156E-5</v>
+      </c>
+      <c r="I42" s="13">
+        <v>5.1707184755704752E-5</v>
+      </c>
+      <c r="J42" s="13">
+        <v>5.5852249779668886E-5</v>
+      </c>
+      <c r="K42" s="13">
+        <v>1.2206842866928591E-4</v>
+      </c>
+      <c r="L42" s="13">
+        <v>7.216381291188117E-4</v>
+      </c>
+      <c r="M42" s="13">
+        <v>2.2095540563750854E-3</v>
+      </c>
+      <c r="N42" s="13">
+        <v>3.8226339316975969E-3</v>
+      </c>
+      <c r="O42" s="13">
+        <v>5.3272777283629074E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="28">
+        <v>1</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1.2957188037907301E-3</v>
+      </c>
+      <c r="I43" s="13">
+        <v>1.4795036110263455E-3</v>
+      </c>
+      <c r="J43" s="13">
+        <v>1.6018485292991595E-3</v>
+      </c>
+      <c r="K43" s="13">
+        <v>1.7656822825739534E-3</v>
+      </c>
+      <c r="L43" s="13">
+        <v>1.9734108574841298E-3</v>
+      </c>
+      <c r="M43" s="13">
+        <v>2.1965936880489674E-3</v>
+      </c>
+      <c r="N43" s="13">
+        <v>2.4499520724434688E-3</v>
+      </c>
+      <c r="O43" s="13">
+        <v>2.7014653486442395E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="28">
+        <v>1</v>
+      </c>
+      <c r="H44" s="13">
+        <v>9.1258830749058398E-4</v>
+      </c>
+      <c r="I44" s="13">
+        <v>8.9750110195639654E-4</v>
+      </c>
+      <c r="J44" s="13">
+        <v>9.9903459686536767E-4</v>
+      </c>
+      <c r="K44" s="13">
+        <v>1.1265609083225784E-3</v>
+      </c>
+      <c r="L44" s="13">
+        <v>1.282149150345063E-3</v>
+      </c>
+      <c r="M44" s="13">
+        <v>1.4484155320577225E-3</v>
+      </c>
+      <c r="N44" s="13">
+        <v>1.6145795229228466E-3</v>
+      </c>
+      <c r="O44" s="13">
+        <v>1.7552866386524909E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="28">
+        <v>1</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0</v>
+      </c>
+      <c r="J45" s="13">
+        <v>0</v>
+      </c>
+      <c r="K45" s="13">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="13">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13">
+        <v>0</v>
+      </c>
+      <c r="O45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C48" s="10"/>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="S48"/>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="S49"/>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="S50"/>
+      <c r="T50" s="29"/>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="S51"/>
+      <c r="T51" s="29"/>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="S52"/>
+      <c r="T52" s="29"/>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C53" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="31" t="str">
+        <f>+D19</f>
+        <v>DGSL</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="S53"/>
+      <c r="T53" s="29"/>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C54" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="34" t="str">
+        <f>+E26</f>
+        <v>DIND</v>
+      </c>
+      <c r="G54" s="35" t="str">
+        <f>+E26</f>
+        <v>DIND</v>
+      </c>
+      <c r="H54" s="34" t="str">
+        <f>+E36</f>
+        <v>DTRA</v>
+      </c>
+      <c r="I54" s="35" t="str">
+        <f>+E36</f>
+        <v>DTRA</v>
+      </c>
+      <c r="S54"/>
+      <c r="T54" s="29"/>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C55" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="51">
+        <v>5.7621225008503835E-2</v>
+      </c>
+      <c r="S55"/>
+      <c r="T55" s="29"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="39">
+        <v>1</v>
+      </c>
+      <c r="E56" s="38">
+        <v>1</v>
+      </c>
+      <c r="F56" s="39">
+        <v>1</v>
+      </c>
+      <c r="G56" s="38">
+        <v>1</v>
+      </c>
+      <c r="H56" s="39">
+        <v>1</v>
+      </c>
+      <c r="I56" s="38">
+        <v>1</v>
+      </c>
+      <c r="L56" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="51">
+        <v>9.3659149944684009E-2</v>
+      </c>
+      <c r="S56"/>
+      <c r="T56" s="29"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>2019</v>
+      </c>
+      <c r="D57" s="36" cm="1">
+        <f t="array" ref="D57:D64">+TRANSPOSE(H17:O17)</f>
+        <v>0.70492284759636947</v>
+      </c>
+      <c r="E57" s="43" cm="1">
+        <f t="array" ref="E57:E64">+TRANSPOSE(H19:O19)</f>
+        <v>6.6920156894449958E-3</v>
+      </c>
+      <c r="F57" s="44" cm="1">
+        <f t="array" ref="F57:F64">+TRANSPOSE(H26:O26)</f>
+        <v>2.3815208477444158E-2</v>
+      </c>
+      <c r="G57" s="45" cm="1">
+        <f t="array" ref="G57:G64">+TRANSPOSE(H28:O28)</f>
+        <v>2.0733084888629265E-3</v>
+      </c>
+      <c r="H57" s="44" cm="1">
+        <f t="array" ref="H57:H64">+TRANSPOSE(H36:O36)</f>
+        <v>0.42556332971371874</v>
+      </c>
+      <c r="I57" s="45" cm="1">
+        <f t="array" ref="I57:I64">+TRANSPOSE(H38:O38)</f>
+        <v>0.43290649023408723</v>
+      </c>
+      <c r="S57"/>
+      <c r="T57" s="29"/>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>2020</v>
+      </c>
+      <c r="D58" s="36">
+        <v>0.71393822850931155</v>
+      </c>
+      <c r="E58" s="43">
+        <v>7.1142331301549495E-3</v>
+      </c>
+      <c r="F58" s="44">
+        <v>2.2130945027794936E-2</v>
+      </c>
+      <c r="G58" s="45">
+        <v>1.605929586164299E-3</v>
+      </c>
+      <c r="H58" s="44">
+        <v>0.42885227003017673</v>
+      </c>
+      <c r="I58" s="45">
+        <v>0.43334520055606424</v>
+      </c>
+      <c r="S58"/>
+      <c r="T58" s="29"/>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>2025</v>
+      </c>
+      <c r="D59" s="36">
+        <v>0.71446486124964681</v>
+      </c>
+      <c r="E59" s="43">
+        <v>6.884185400222554E-3</v>
+      </c>
+      <c r="F59" s="44">
+        <v>2.2932665713608379E-2</v>
+      </c>
+      <c r="G59" s="45">
+        <v>1.6549809268611576E-3</v>
+      </c>
+      <c r="H59" s="44">
+        <v>0.4301288355256343</v>
+      </c>
+      <c r="I59" s="45">
+        <v>0.42676689042599353</v>
+      </c>
+      <c r="S59"/>
+      <c r="T59" s="29"/>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>2030</v>
+      </c>
+      <c r="D60" s="36">
+        <v>0.71752787053189593</v>
+      </c>
+      <c r="E60" s="43">
+        <v>6.7217875799148548E-3</v>
+      </c>
+      <c r="F60" s="44">
+        <v>2.2896265372607132E-2</v>
+      </c>
+      <c r="G60" s="45">
+        <v>1.6409824262324721E-3</v>
+      </c>
+      <c r="H60" s="44">
+        <v>0.42782773669978968</v>
+      </c>
+      <c r="I60" s="45">
+        <v>0.41280956616074077</v>
+      </c>
+      <c r="S60"/>
+      <c r="T60" s="29"/>
+    </row>
+    <row r="61" spans="3:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>2035</v>
+      </c>
+      <c r="D61" s="36">
+        <v>0.71924314150809932</v>
+      </c>
+      <c r="E61" s="43">
+        <v>6.6017020910173795E-3</v>
+      </c>
+      <c r="F61" s="44">
+        <v>2.2391833159756083E-2</v>
+      </c>
+      <c r="G61" s="45">
+        <v>1.58464374956299E-3</v>
+      </c>
+      <c r="H61" s="44">
+        <v>0.41668817229295235</v>
+      </c>
+      <c r="I61" s="45">
+        <v>0.39470185013541281</v>
+      </c>
+      <c r="S61"/>
+      <c r="T61" s="29"/>
+    </row>
+    <row r="62" spans="3:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>2040</v>
+      </c>
+      <c r="D62" s="36">
+        <v>0.71947452206965223</v>
+      </c>
+      <c r="E62" s="43">
+        <v>6.5185070900598899E-3</v>
+      </c>
+      <c r="F62" s="44">
+        <v>2.177574009314618E-2</v>
+      </c>
+      <c r="G62" s="45">
+        <v>1.5202058455406398E-3</v>
+      </c>
+      <c r="H62" s="44">
+        <v>0.39409044952974615</v>
+      </c>
+      <c r="I62" s="45">
+        <v>0.37375110178859372</v>
+      </c>
+      <c r="S62"/>
+      <c r="T62" s="29"/>
+    </row>
+    <row r="63" spans="3:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>2045</v>
+      </c>
+      <c r="D63" s="36">
+        <v>0.71849531385010945</v>
+      </c>
+      <c r="E63" s="43">
+        <v>6.4624611243749045E-3</v>
+      </c>
+      <c r="F63" s="44">
+        <v>2.1387985767026867E-2</v>
+      </c>
+      <c r="G63" s="45">
+        <v>1.4820495625786701E-3</v>
+      </c>
+      <c r="H63" s="44">
+        <v>0.36101605214575999</v>
+      </c>
+      <c r="I63" s="45">
+        <v>0.35412901955996318</v>
+      </c>
+      <c r="S63"/>
+      <c r="T63" s="29"/>
+    </row>
+    <row r="64" spans="3:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>2050</v>
+      </c>
+      <c r="D64" s="37">
+        <v>0.71650902714452402</v>
+      </c>
+      <c r="E64" s="46">
+        <v>6.4287265996042856E-3</v>
+      </c>
+      <c r="F64" s="47">
+        <v>2.1105475060029102E-2</v>
+      </c>
+      <c r="G64" s="48">
+        <v>1.4573539790034261E-3</v>
+      </c>
+      <c r="H64" s="47">
+        <v>0.32619321607544083</v>
+      </c>
+      <c r="I64" s="48">
+        <v>0.33610432900293752</v>
+      </c>
+      <c r="S64"/>
+      <c r="T64" s="29"/>
+    </row>
+    <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S65"/>
+      <c r="T65" s="29"/>
+    </row>
+    <row r="66" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S66"/>
+      <c r="T66" s="29"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S67"/>
+      <c r="T67" s="29"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S68"/>
+      <c r="T68" s="29"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S69"/>
+      <c r="T69" s="29"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F73" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="K74" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="M74" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="N74" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="O74" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R74" s="18"/>
+      <c r="S74"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C75" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="53">
+        <v>2019</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="53"/>
+      <c r="H75" s="55">
+        <f>+D57*(100%-$O$56)</f>
+        <v>0.63890037291390744</v>
+      </c>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="K75" s="53"/>
+      <c r="L75" s="53"/>
+      <c r="M75" s="53"/>
+      <c r="N75" s="53"/>
+      <c r="O75" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C76" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>2020</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="57">
+        <f t="shared" ref="H76:H81" si="0">+D58*(100%-$O$56)</f>
+        <v>0.64707138091411587</v>
+      </c>
+      <c r="J76" t="s">
+        <v>48</v>
+      </c>
+      <c r="O76" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C77" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <v>2025</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="57">
+        <f t="shared" si="0"/>
+        <v>0.64754868967965828</v>
+      </c>
+      <c r="J77" t="s">
+        <v>48</v>
+      </c>
+      <c r="O77" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C78" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>2030</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="57">
+        <f t="shared" si="0"/>
+        <v>0.65032482011625925</v>
+      </c>
+      <c r="J78" t="s">
+        <v>48</v>
+      </c>
+      <c r="O78" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C79" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>2035</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="57">
+        <f t="shared" si="0"/>
+        <v>0.65187944027090661</v>
+      </c>
+      <c r="J79" t="s">
+        <v>48</v>
+      </c>
+      <c r="O79" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C80" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>2040</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="57">
+        <f t="shared" si="0"/>
+        <v>0.65208914992575073</v>
+      </c>
+      <c r="J80" t="s">
+        <v>48</v>
+      </c>
+      <c r="O80" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C81" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <v>2045</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="57">
+        <f t="shared" si="0"/>
+        <v>0.65120165351566928</v>
+      </c>
+      <c r="J81" t="s">
+        <v>48</v>
+      </c>
+      <c r="O81" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C82" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="59">
+        <v>2050</v>
+      </c>
+      <c r="F82" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="59"/>
+      <c r="H82" s="61">
+        <f>+D64*(100%-$O$56)</f>
+        <v>0.64940140073447539</v>
+      </c>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C83" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="53">
+        <v>2019</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" s="53"/>
+      <c r="H83" s="55">
+        <f t="shared" ref="H83:H90" si="1">+E57*(1-$O$55)</f>
+        <v>6.3064135476430475E-3</v>
+      </c>
+      <c r="I83" s="53"/>
+      <c r="J83" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" s="53"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="53"/>
+      <c r="N83" s="53"/>
+      <c r="O83" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C84" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <v>2020</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="57">
+        <f t="shared" si="1"/>
+        <v>6.7043023021993381E-3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="O84" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C85" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <v>2025</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="57">
+        <f t="shared" si="1"/>
+        <v>6.4875102042760728E-3</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="O85" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C86" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>2030</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="57">
+        <f t="shared" si="1"/>
+        <v>6.3344699453132145E-3</v>
+      </c>
+      <c r="J86" t="s">
+        <v>48</v>
+      </c>
+      <c r="O86" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C87" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <v>2035</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="57">
+        <f t="shared" si="1"/>
+        <v>6.2213039293917563E-3</v>
+      </c>
+      <c r="J87" t="s">
+        <v>48</v>
+      </c>
+      <c r="O87" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C88" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <v>2040</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="57">
+        <f>+E62*(1-$O$55)</f>
+        <v>6.1429027263040208E-3</v>
+      </c>
+      <c r="J88" t="s">
+        <v>48</v>
+      </c>
+      <c r="O88" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C89" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>2045</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" s="57">
+        <f t="shared" si="1"/>
+        <v>6.0900861978185894E-3</v>
+      </c>
+      <c r="J89" t="s">
+        <v>48</v>
+      </c>
+      <c r="O89" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C90" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="59">
+        <v>2050</v>
+      </c>
+      <c r="F90" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="59"/>
+      <c r="H90" s="61">
+        <f t="shared" si="1"/>
+        <v>6.0582954976903334E-3</v>
+      </c>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
+      <c r="N90" s="59"/>
+      <c r="O90" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C91" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="53">
+        <v>2019</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="53"/>
+      <c r="H91" s="55">
+        <f>+F57*(1-$O$56)</f>
+        <v>2.1584696295691305E-2</v>
+      </c>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="K91" s="53"/>
+      <c r="L91" s="53"/>
+      <c r="M91" s="53"/>
+      <c r="N91" s="53"/>
+      <c r="O91" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C92" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>2020</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" s="57">
+        <f t="shared" ref="H92:H98" si="2">+F58*(1-$O$56)</f>
+        <v>2.0058179529019129E-2</v>
+      </c>
+      <c r="J92" t="s">
+        <v>60</v>
+      </c>
+      <c r="O92" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C93" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>2025</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" s="57">
+        <f t="shared" si="2"/>
+        <v>2.0784811736906217E-2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>60</v>
+      </c>
+      <c r="O93" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C94" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>2030</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="57">
+        <f t="shared" si="2"/>
+        <v>2.0751820620900842E-2</v>
+      </c>
+      <c r="J94" t="s">
+        <v>60</v>
+      </c>
+      <c r="O94" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C95" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>2035</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="57">
+        <f t="shared" si="2"/>
+        <v>2.0294633100310138E-2</v>
+      </c>
+      <c r="J95" t="s">
+        <v>60</v>
+      </c>
+      <c r="O95" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C96" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>2040</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="57">
+        <f t="shared" si="2"/>
+        <v>1.9736242786605733E-2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>60</v>
+      </c>
+      <c r="O96" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C97" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>2045</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" s="57">
+        <f t="shared" si="2"/>
+        <v>1.938480520105813E-2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>60</v>
+      </c>
+      <c r="O97" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C98" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="59">
+        <v>2050</v>
+      </c>
+      <c r="F98" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" s="59"/>
+      <c r="H98" s="61">
+        <f t="shared" si="2"/>
+        <v>1.9128754206728046E-2</v>
+      </c>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
+      <c r="N98" s="59"/>
+      <c r="O98" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C99" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="53">
+        <v>2019</v>
+      </c>
+      <c r="F99" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" s="53"/>
+      <c r="H99" s="55">
+        <f t="shared" ref="H99:H106" si="3">+G57*(1-$O$55)</f>
+        <v>1.9538419139141145E-3</v>
+      </c>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="K99" s="53"/>
+      <c r="L99" s="53"/>
+      <c r="M99" s="53"/>
+      <c r="N99" s="53"/>
+      <c r="O99" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C100" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>2020</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" s="57">
+        <f t="shared" si="3"/>
+        <v>1.5133939561321125E-3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>60</v>
+      </c>
+      <c r="O100" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C101" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <v>2025</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" s="57">
+        <f t="shared" si="3"/>
+        <v>1.5596188984897087E-3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>60</v>
+      </c>
+      <c r="O101" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C102" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <v>2030</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" s="57">
+        <f t="shared" si="3"/>
+        <v>1.5464270086155301E-3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>60</v>
+      </c>
+      <c r="O102" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C103" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>2035</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" s="57">
+        <f t="shared" si="3"/>
+        <v>1.4933346355111017E-3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>60</v>
+      </c>
+      <c r="O103" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C104" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>2040</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" s="57">
+        <f t="shared" si="3"/>
+        <v>1.4326097224554998E-3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>60</v>
+      </c>
+      <c r="O104" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C105" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>2045</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" s="57">
+        <f t="shared" si="3"/>
+        <v>1.3966520512595699E-3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>60</v>
+      </c>
+      <c r="O105" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C106" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="59">
+        <v>2050</v>
+      </c>
+      <c r="F106" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G106" s="59"/>
+      <c r="H106" s="61">
+        <f t="shared" si="3"/>
+        <v>1.3733794574622312E-3</v>
+      </c>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="59"/>
+      <c r="N106" s="59"/>
+      <c r="O106" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C107" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="53">
+        <v>2019</v>
+      </c>
+      <c r="F107" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" s="53"/>
+      <c r="H107" s="55">
+        <f t="shared" ref="H107:H114" si="4">+H57*(1-$O$56)</f>
+        <v>0.38570543000510255</v>
+      </c>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="K107" s="53"/>
+      <c r="L107" s="53"/>
+      <c r="M107" s="53"/>
+      <c r="N107" s="53"/>
+      <c r="O107" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C108" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>2020</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" s="57">
+        <f t="shared" si="4"/>
+        <v>0.38868633096730226</v>
+      </c>
+      <c r="J108" t="s">
+        <v>66</v>
+      </c>
+      <c r="O108" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C109" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>2025</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="57">
+        <f t="shared" si="4"/>
+        <v>0.38984333442360658</v>
+      </c>
+      <c r="J109" t="s">
+        <v>66</v>
+      </c>
+      <c r="O109" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C110" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>2030</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" s="57">
+        <f t="shared" si="4"/>
+        <v>0.38775775455772926</v>
+      </c>
+      <c r="J110" t="s">
+        <v>66</v>
+      </c>
+      <c r="O110" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C111" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>2035</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="57">
+        <f t="shared" si="4"/>
+        <v>0.37766151228399036</v>
+      </c>
+      <c r="J111" t="s">
+        <v>66</v>
+      </c>
+      <c r="O111" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C112" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>2040</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" s="57">
+        <f t="shared" si="4"/>
+        <v>0.35718027302547173</v>
+      </c>
+      <c r="J112" t="s">
+        <v>66</v>
+      </c>
+      <c r="O112" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C113" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>2045</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" s="57">
+        <f t="shared" si="4"/>
+        <v>0.32720359558540241</v>
+      </c>
+      <c r="J113" t="s">
+        <v>66</v>
+      </c>
+      <c r="O113" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C114" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="59">
+        <v>2050</v>
+      </c>
+      <c r="F114" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" s="59"/>
+      <c r="H114" s="61">
+        <f t="shared" si="4"/>
+        <v>0.29564223674009238</v>
+      </c>
+      <c r="I114" s="59"/>
+      <c r="J114" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="K114" s="59"/>
+      <c r="L114" s="59"/>
+      <c r="M114" s="59"/>
+      <c r="N114" s="59"/>
+      <c r="O114" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C115" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="53">
+        <v>2019</v>
+      </c>
+      <c r="F115" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" s="53"/>
+      <c r="H115" s="55">
+        <f t="shared" ref="H115:H122" si="5">+I57*(1-$O$55)</f>
+        <v>0.40796188795266719</v>
+      </c>
+      <c r="I115" s="53"/>
+      <c r="J115" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="K115" s="53"/>
+      <c r="L115" s="53"/>
+      <c r="M115" s="53"/>
+      <c r="N115" s="53"/>
+      <c r="O115" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C116" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>2020</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" s="57">
+        <f t="shared" si="5"/>
+        <v>0.40837531924846804</v>
+      </c>
+      <c r="J116" t="s">
+        <v>66</v>
+      </c>
+      <c r="O116" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C117" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>2025</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" s="57">
+        <f t="shared" si="5"/>
+        <v>0.40217605940657786</v>
+      </c>
+      <c r="J117" t="s">
+        <v>66</v>
+      </c>
+      <c r="O117" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C118" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>2030</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118" s="57">
+        <f t="shared" si="5"/>
+        <v>0.38902297326332985</v>
+      </c>
+      <c r="J118" t="s">
+        <v>66</v>
+      </c>
+      <c r="O118" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C119" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>2035</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H119" s="57">
+        <f t="shared" si="5"/>
+        <v>0.3719586460174874</v>
+      </c>
+      <c r="J119" t="s">
+        <v>66</v>
+      </c>
+      <c r="O119" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C120" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>2040</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="57">
+        <f t="shared" si="5"/>
+        <v>0.35221510545525692</v>
+      </c>
+      <c r="J120" t="s">
+        <v>66</v>
+      </c>
+      <c r="O120" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C121" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <v>2045</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121" s="57">
+        <f t="shared" si="5"/>
+        <v>0.33372367164185768</v>
+      </c>
+      <c r="J121" t="s">
+        <v>66</v>
+      </c>
+      <c r="O121" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C122" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="59">
+        <v>2050</v>
+      </c>
+      <c r="F122" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" s="59"/>
+      <c r="H122" s="61">
+        <f t="shared" si="5"/>
+        <v>0.31673758583512707</v>
+      </c>
+      <c r="I122" s="59"/>
+      <c r="J122" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="K122" s="59"/>
+      <c r="L122" s="59"/>
+      <c r="M122" s="59"/>
+      <c r="N122" s="59"/>
+      <c r="O122" s="42" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1409,7 +4415,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>